--- a/ModbusMap.xlsx
+++ b/ModbusMap.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jack\Dropbox\Omron\TM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jack\Dropbox\Projects\Git_Managed\TM_Comms_WPF.Net\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C945B0AF-1AF0-4169-A0DB-E4E0906D652A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5AA48DD-E95B-400B-8074-5572F62A23BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="27780" yWindow="-16320" windowWidth="38640" windowHeight="15990" xr2:uid="{B2FAB522-6140-462F-91B5-EBC9ED9F4BA8}"/>
   </bookViews>
@@ -1821,8 +1821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8C27785-FDD7-48F8-A31D-10B9D2425DFA}">
   <dimension ref="A1:N146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
